--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.73655863399306</v>
+        <v>19.12169920302114</v>
       </c>
       <c r="C11" t="n">
-        <v>58.02011482792131</v>
+        <v>59.35443124147896</v>
       </c>
       <c r="D11" t="n">
-        <v>74.89538618231903</v>
+        <v>76.0365266719726</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.34503812697163</v>
+        <v>0.1134503812697163</v>
       </c>
       <c r="C2" t="n">
-        <v>36.3629988158959</v>
+        <v>0.363629988158959</v>
       </c>
       <c r="D2" t="n">
-        <v>23.35813771135404</v>
+        <v>0.2335813771135404</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.27060682023149</v>
+        <v>0.1427060682023149</v>
       </c>
       <c r="C3" t="n">
-        <v>47.05017993336396</v>
+        <v>0.4705017993336396</v>
       </c>
       <c r="D3" t="n">
-        <v>40.1934478555982</v>
+        <v>0.401934478555982</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.568543739885</v>
+        <v>0.1156854373988501</v>
       </c>
       <c r="C4" t="n">
-        <v>37.18444594460672</v>
+        <v>0.3718444594460672</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8527388902443</v>
+        <v>0.488527388902443</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.35259214757009</v>
+        <v>0.1135259214757009</v>
       </c>
       <c r="C5" t="n">
-        <v>36.38704944091177</v>
+        <v>0.3638704944091177</v>
       </c>
       <c r="D5" t="n">
-        <v>48.23297927871204</v>
+        <v>0.4823297927871203</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.69598089434141</v>
+        <v>0.1069598089434141</v>
       </c>
       <c r="C6" t="n">
-        <v>34.26232255321035</v>
+        <v>0.3426232255321035</v>
       </c>
       <c r="D6" t="n">
-        <v>45.792954489331</v>
+        <v>0.45792954489331</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.58331752038023</v>
+        <v>0.1258331752038023</v>
       </c>
       <c r="C7" t="n">
-        <v>41.57252696142544</v>
+        <v>0.4157252696142544</v>
       </c>
       <c r="D7" t="n">
-        <v>54.75469931395082</v>
+        <v>0.5475469931395082</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.21919319313124</v>
+        <v>0.1421919319313124</v>
       </c>
       <c r="C8" t="n">
-        <v>46.82529048977764</v>
+        <v>0.4682529048977764</v>
       </c>
       <c r="D8" t="n">
-        <v>63.38644782041469</v>
+        <v>0.6338644782041469</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.12702967389864</v>
+        <v>0.1512702967389864</v>
       </c>
       <c r="C9" t="n">
-        <v>50.03121502984532</v>
+        <v>0.5003121502984532</v>
       </c>
       <c r="D9" t="n">
-        <v>65.11945793465129</v>
+        <v>0.6511945793465129</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.5929890552952</v>
+        <v>5.485929890552953</v>
       </c>
       <c r="C10" t="n">
-        <v>2457.657712181544</v>
+        <v>24.57657712181544</v>
       </c>
       <c r="D10" t="n">
-        <v>2457.671687879275</v>
+        <v>24.57671687879275</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.12169920302114</v>
+        <v>0.1913064974213798</v>
       </c>
       <c r="C11" t="n">
-        <v>59.35443124147896</v>
+        <v>0.5938163885257034</v>
       </c>
       <c r="D11" t="n">
-        <v>76.0365266719726</v>
+        <v>0.7608746651134555</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.35413982624234</v>
+        <v>0.1635413982624234</v>
       </c>
       <c r="C12" t="n">
-        <v>50.28485165593403</v>
+        <v>0.5028485165593403</v>
       </c>
       <c r="D12" t="n">
-        <v>66.58814445450059</v>
+        <v>0.6658814445450059</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.96731700555842</v>
+        <v>0.2196731700555842</v>
       </c>
       <c r="C13" t="n">
-        <v>69.38799977692894</v>
+        <v>0.6938799977692893</v>
       </c>
       <c r="D13" t="n">
-        <v>84.21529656416382</v>
+        <v>0.8421529656416382</v>
       </c>
     </row>
   </sheetData>
